--- a/data/external/GemeindeMappings.xlsx
+++ b/data/external/GemeindeMappings.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\myCloud\Users\Thomas\Documents\KNIME\TomsSpielwiese\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users_no_backup\Thomas\GitHub\Matura\data\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A58F1C-530B-4BCB-8B8C-8A425DBB3D2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{141CF8B7-6940-42EE-B418-E4CBD590E4E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="GemeindeMappings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>GemeindeNameSchule</t>
   </si>
@@ -49,12 +48,27 @@
   </si>
   <si>
     <t>Beromünster</t>
+  </si>
+  <si>
+    <t>Marbach (LU) XXX</t>
+  </si>
+  <si>
+    <t>Pfeffikon XXX</t>
+  </si>
+  <si>
+    <t>Rickenbach (LU)</t>
+  </si>
+  <si>
+    <t>Ohmstal XXX</t>
+  </si>
+  <si>
+    <t>Schötz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +132,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,20 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B0BF0B-C0F6-4DF7-A47F-47CABB684CBC}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -458,12 +473,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
